--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,6 +765,180 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1C2B1043200</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C00005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>X5R,104/50V,0.10pF,0402 (華新科)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SMT</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>電容</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0402</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>B±0.10pF</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>50V</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1000P</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>華新科</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2024-06-14 14:24:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1C2B1043300</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C00006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>X5R,104/50V,0.10pF,0402 (三環)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SMT</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>電容</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0402</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>B±0.10pF</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>50V</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1000P</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>三環</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2024-06-14 14:24:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1C2B1043600</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>C00007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>X5R,104/50V,0.10pF,0402 (永銘)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SMT</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>電容</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0402</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>B±0.10pF</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>50V</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1000P</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>永銘</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2024-06-14 14:24:21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,6 +939,268 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>21100002100</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C00008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DIP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>機構元件</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>機構元件</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>;XH-6A(红星)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>合兴</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2024-06-21 14:3:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2D100001100</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>C00009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DIP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>二極管</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>稳壓二極管</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1N4750A_DO-41(先科ST)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>先科ST</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2024-06-21 14:4:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1R214708200</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>C00010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4R7,0.005,1/4W,,0402 (華新科)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SMT</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>電阻</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0402</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>4R7</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>華新科</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2024-06-21 14:4:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1C1C1043100</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>C00011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>X5R,104/50V,0.25pF,0201 (國巨)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SMT</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>電容</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C±0.25pF</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>50V</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1000P</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>國巨</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2024-06-21 14:6:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1C121043100</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>C00012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>X7R,104/50V,0.25pF,0201 (國巨)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SMT</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>電容</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C±0.25pF</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>50V</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1000P</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>國巨</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2024-06-21 14:6:31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1201,6 +1201,68 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1C211041101</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>C00013</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>X7R,104/16V,0.10pF,0402 (國巨)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SMT</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>電容</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0402</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>B±0.10pF</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>16V</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1000P</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>國巨</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>台灣天河星科技有限公司</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2024-06-25 15:35:4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
